--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vignesh\Baskaran_WebdriverIO\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC5CE6F-D13F-437C-82D9-127C45C94051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,126 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>DOB Day</t>
+  </si>
+  <si>
+    <t>DOB Month</t>
+  </si>
+  <si>
+    <t>DOB Year</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>123 Main Street</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>SampleCity</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Secret12</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>456 Another St</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>OtherCity</t>
+  </si>
+  <si>
+    <t>qwrt@example.com</t>
+  </si>
+  <si>
+    <t>fder@example.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +166,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +462,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1990</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
+        <v>12345</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1992</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3">
+        <v>67890</v>
+      </c>
+      <c r="M3" s="3">
+        <v>987654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7A3FDFC3-0B0C-40F8-8791-26928607CA83}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{0D14D9A3-4D91-4E36-A83E-E5EF48E7A9F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vignesh\Baskaran_WebdriverIO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC5CE6F-D13F-437C-82D9-127C45C94051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC09F64-5882-4598-B1A4-7CD06438D858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>fder@example.com</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Blue Top</t>
   </si>
 </sst>
 </file>
@@ -463,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,8 +517,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -552,8 +561,11 @@
       <c r="M2" s="3">
         <v>1234567890</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -592,6 +604,9 @@
       </c>
       <c r="M3" s="3">
         <v>987654321</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
